--- a/input/similarity_c_l.xlsx
+++ b/input/similarity_c_l.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\optimizing-the-french-keyboard\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
-  <si>
-    <t>´</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>ˆ</t>
-  </si>
-  <si>
-    <t>¨</t>
-  </si>
-  <si>
-    <t>¸</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>é</t>
   </si>
@@ -59,24 +44,6 @@
     <t>Ø</t>
   </si>
   <si>
-    <t>˛</t>
-  </si>
-  <si>
-    <t>ˇ</t>
-  </si>
-  <si>
-    <t>˚</t>
-  </si>
-  <si>
-    <t>˘</t>
-  </si>
-  <si>
-    <t>˝</t>
-  </si>
-  <si>
-    <t>  ̏</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -333,13 +300,55 @@
   </si>
   <si>
     <t>µ</t>
+  </si>
+  <si>
+    <t>´d</t>
+  </si>
+  <si>
+    <t>`d</t>
+  </si>
+  <si>
+    <t>^d</t>
+  </si>
+  <si>
+    <t>¨d</t>
+  </si>
+  <si>
+    <t>¸d</t>
+  </si>
+  <si>
+    <t>~d</t>
+  </si>
+  <si>
+    <t>˛d</t>
+  </si>
+  <si>
+    <t>ˇd</t>
+  </si>
+  <si>
+    <t>˚d</t>
+  </si>
+  <si>
+    <t>˘d</t>
+  </si>
+  <si>
+    <t>˝d</t>
+  </si>
+  <si>
+    <t>  ̏d</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +381,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -406,6 +422,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,98 +708,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK80"/>
+  <dimension ref="A1:CK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="28" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -846,519 +865,533 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
+      <c r="A7" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="N7">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="F9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="P18">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="T41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="P19">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="Q42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="P77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="T56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="Q57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="Y76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>66</v>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/input/similarity_c_l.xlsx
+++ b/input/similarity_c_l.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\optimizing-the-french-keyboard\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -700,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,8 +706,8 @@
   <dimension ref="A1:CK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA70" sqref="AA70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
